--- a/Data/Processed/eigen_A2014.xlsx
+++ b/Data/Processed/eigen_A2014.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -376,76 +376,76 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>2.7321</v>
+        <v>3.03528</v>
       </c>
       <c r="B2">
-        <v>34.15129</v>
+        <v>33.72532</v>
       </c>
       <c r="C2">
-        <v>34.15129</v>
+        <v>33.72532</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>1.60555</v>
+        <v>1.63414</v>
       </c>
       <c r="B3">
-        <v>20.06936</v>
+        <v>18.15715</v>
       </c>
       <c r="C3">
-        <v>54.22065</v>
+        <v>51.88247</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>1.25643</v>
+        <v>1.60555</v>
       </c>
       <c r="B4">
-        <v>15.70542</v>
+        <v>17.83942</v>
       </c>
       <c r="C4">
-        <v>69.92607</v>
+        <v>69.72189</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>0.85419</v>
+        <v>1.15779</v>
       </c>
       <c r="B5">
-        <v>10.67739</v>
+        <v>12.86436</v>
       </c>
       <c r="C5">
-        <v>80.60346</v>
+        <v>82.58625000000001</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>0.79735</v>
+        <v>0.8034</v>
       </c>
       <c r="B6">
-        <v>9.966939999999999</v>
+        <v>8.92662</v>
       </c>
       <c r="C6">
-        <v>90.57039</v>
+        <v>91.51287000000001</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>0.70313</v>
+        <v>0.71261</v>
       </c>
       <c r="B7">
-        <v>8.78917</v>
+        <v>7.91784</v>
       </c>
       <c r="C7">
-        <v>99.35957000000001</v>
+        <v>99.43071</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>0.05123</v>
+        <v>0.05124</v>
       </c>
       <c r="B8">
-        <v>0.6404300000000001</v>
+        <v>0.56929</v>
       </c>
       <c r="C8">
         <v>100</v>
@@ -459,6 +459,17 @@
         <v>0</v>
       </c>
       <c r="C9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
         <v>100</v>
       </c>
     </row>
